--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1004425.379670102</v>
+        <v>999528.1430821547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23767730.23371836</v>
+        <v>23767730.23371837</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.9077373</v>
+        <v>8186089.907737298</v>
       </c>
     </row>
     <row r="9">
@@ -1372,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.88406641461938</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>56.65710066202321</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>38.04401443014642</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
-        <v>153.1433946664671</v>
+        <v>27.40403204092462</v>
       </c>
       <c r="U12" t="n">
         <v>195.3021387078687</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.81908223205212</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -1545,10 +1545,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>10.93585084221246</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.0607131231338</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>77.10538198881129</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>35.87016544168306</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
         <v>3.166568202456219</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1700,7 +1700,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>62.82885394936971</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T15" t="n">
-        <v>83.31712807729311</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U15" t="n">
         <v>195.3021387078687</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.7541230981928</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>167.8355178356165</v>
+        <v>71.63180950810816</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>229.1092827113949</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>40.49947998181147</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1976,10 +1976,10 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
-        <v>153.1433946664671</v>
+        <v>35.26193722440609</v>
       </c>
       <c r="U18" t="n">
-        <v>77.42068126580823</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -2004,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>143.1032299497992</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>52.9921268912226</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9179208068699</v>
@@ -2064,7 +2064,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9526628328649</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>3.166568202456219</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>15.39150266327551</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>66.47021313332969</v>
       </c>
       <c r="H21" t="n">
         <v>59.00565898536429</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T21" t="n">
         <v>153.1433946664671</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3021387078687</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>63.6535624239698</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>29.11948557459235</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.67390455345194</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2320,19 +2320,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>328.2458591778582</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>18.87698823630836</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>119.4187438228668</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>187.5249497222439</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>358.2065259713727</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>39.99514657913546</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.205998418005315</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4.12088201781014</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9179208068699</v>
@@ -2794,19 +2794,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>246.4937100594815</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>361.6985102578519</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,10 +2952,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.4187438228668</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>123.8653750969303</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3031,19 +3031,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>353.7427149543088</v>
+        <v>328.2458591778578</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>110.64771062587</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6200590018132</v>
+        <v>93.34669050555446</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U34" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T35" t="n">
-        <v>133.7885438729635</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>224.6454716943314</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3350,19 +3350,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>75.67761790919525</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3410,7 +3410,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>85.64753171493335</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.11948557459229</v>
+        <v>29.11948557459273</v>
       </c>
       <c r="T37" t="n">
         <v>233.0607131231338</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>75.14600148119062</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>126.436539716649</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
@@ -3599,7 +3599,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>124.5104332011349</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U39" t="n">
         <v>195.3021387078687</v>
@@ -3644,7 +3644,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>122.1856462534721</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>204.8801629550785</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>33.90851977628176</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>71.53272129786798</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>231.6112153217996</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3872,16 +3872,16 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U42" t="n">
-        <v>114.8358897294728</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>189.0656046730689</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3906,16 +3906,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>85.13030107925681</v>
       </c>
       <c r="V43" t="n">
-        <v>158.3579965379216</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>111.8840206359697</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T44" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>236.5291020115845</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -4073,7 +4073,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T45" t="n">
-        <v>64.22820433890406</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U45" t="n">
         <v>195.3021387078687</v>
@@ -4118,7 +4118,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>110.1463134747154</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4137,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>29.11948557459214</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>76.13411123594065</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1290.697228236337</v>
+        <v>449.0641349323531</v>
       </c>
       <c r="C11" t="n">
-        <v>1290.697228236337</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="D11" t="n">
-        <v>1290.697228236337</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="E11" t="n">
-        <v>876.3570127532337</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="F11" t="n">
-        <v>455.3266007069212</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G11" t="n">
-        <v>48.75519900538393</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J11" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689896</v>
       </c>
       <c r="K11" t="n">
-        <v>323.229055744659</v>
+        <v>323.2290557446586</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064787</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152971</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
@@ -5059,34 +5059,34 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P11" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R11" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S11" t="n">
         <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1700.918407900826</v>
+        <v>1643.689013292721</v>
       </c>
       <c r="U11" t="n">
-        <v>1700.918407900826</v>
+        <v>1643.689013292721</v>
       </c>
       <c r="V11" t="n">
-        <v>1700.918407900826</v>
+        <v>1643.689013292721</v>
       </c>
       <c r="W11" t="n">
-        <v>1700.918407900826</v>
+        <v>1259.92871242789</v>
       </c>
       <c r="X11" t="n">
-        <v>1700.918407900826</v>
+        <v>859.2853145968425</v>
       </c>
       <c r="Y11" t="n">
-        <v>1700.918407900826</v>
+        <v>859.2853145968425</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>445.5543329492906</v>
+        <v>572.5637901468074</v>
       </c>
       <c r="C12" t="n">
-        <v>311.5592616982363</v>
+        <v>438.568718895753</v>
       </c>
       <c r="D12" t="n">
-        <v>194.6621039176287</v>
+        <v>321.6715611151454</v>
       </c>
       <c r="E12" t="n">
-        <v>74.16928790995669</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F12" t="n">
-        <v>35.74099050576839</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G12" t="n">
-        <v>35.74099050576839</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I12" t="n">
-        <v>54.34778796170229</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J12" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K12" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7610195839799</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M12" t="n">
-        <v>657.3593538638704</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N12" t="n">
-        <v>898.8699740518614</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O12" t="n">
-        <v>1110.805991538929</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P12" t="n">
-        <v>1273.073438353127</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q12" t="n">
-        <v>1687.264539063038</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R12" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S12" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.804889936498</v>
+        <v>1672.814347134014</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.530002352792</v>
+        <v>1475.539459550308</v>
       </c>
       <c r="V12" t="n">
-        <v>1134.818475345826</v>
+        <v>1261.827932543342</v>
       </c>
       <c r="W12" t="n">
-        <v>921.5853070821544</v>
+        <v>1048.594764279671</v>
       </c>
       <c r="X12" t="n">
-        <v>745.2593252210472</v>
+        <v>872.268782418564</v>
       </c>
       <c r="Y12" t="n">
-        <v>585.8573655848772</v>
+        <v>712.866822782394</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1086.40989498774</v>
+        <v>709.7055058277933</v>
       </c>
       <c r="C13" t="n">
-        <v>915.3165225494567</v>
+        <v>538.6121333895098</v>
       </c>
       <c r="D13" t="n">
-        <v>755.8218778723667</v>
+        <v>538.6121333895098</v>
       </c>
       <c r="E13" t="n">
-        <v>594.9110627406862</v>
+        <v>377.7013182578293</v>
       </c>
       <c r="F13" t="n">
-        <v>430.2799368512775</v>
+        <v>213.0701923684206</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>46.78730448780115</v>
       </c>
       <c r="H13" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J13" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K13" t="n">
-        <v>381.5865293505955</v>
+        <v>316.585165719259</v>
       </c>
       <c r="L13" t="n">
-        <v>782.4625254678897</v>
+        <v>717.4611618365532</v>
       </c>
       <c r="M13" t="n">
-        <v>875.4027113546831</v>
+        <v>1155.367697237632</v>
       </c>
       <c r="N13" t="n">
-        <v>1243.239884391384</v>
+        <v>1249.280271227476</v>
       </c>
       <c r="O13" t="n">
-        <v>1321.756545649937</v>
+        <v>1642.87169190477</v>
       </c>
       <c r="P13" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q13" t="n">
-        <v>1787.049525288419</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="R13" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="S13" t="n">
-        <v>1617.518699191837</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="T13" t="n">
-        <v>1382.103837451298</v>
+        <v>1509.864407011629</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.358462898904</v>
+        <v>1227.119032459236</v>
       </c>
       <c r="V13" t="n">
-        <v>1099.358462898904</v>
+        <v>1227.119032459236</v>
       </c>
       <c r="W13" t="n">
-        <v>1099.358462898904</v>
+        <v>948.0493679681099</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.358462898904</v>
+        <v>709.7055058277933</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.358462898904</v>
+        <v>709.7055058277933</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>889.7605551844269</v>
+        <v>1146.563015071284</v>
       </c>
       <c r="C14" t="n">
-        <v>479.635964497697</v>
+        <v>1146.563015071284</v>
       </c>
       <c r="D14" t="n">
-        <v>75.17203459075756</v>
+        <v>742.0990851643446</v>
       </c>
       <c r="E14" t="n">
-        <v>75.17203459075756</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="F14" t="n">
-        <v>38.93954424562315</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G14" t="n">
-        <v>38.93954424562315</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H14" t="n">
         <v>38.93954424562315</v>
@@ -5284,7 +5284,7 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064783</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M14" t="n">
         <v>841.1329596152972</v>
@@ -5305,25 +5305,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S14" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T14" t="n">
-        <v>1700.918407900826</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="U14" t="n">
-        <v>1700.918407900826</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="V14" t="n">
-        <v>1700.918407900826</v>
+        <v>1224.447239302407</v>
       </c>
       <c r="W14" t="n">
-        <v>1700.918407900826</v>
+        <v>1224.447239302407</v>
       </c>
       <c r="X14" t="n">
-        <v>1700.918407900826</v>
+        <v>1224.447239302407</v>
       </c>
       <c r="Y14" t="n">
-        <v>1299.981734848916</v>
+        <v>1224.447239302407</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>516.0859153625977</v>
+        <v>445.5543329492906</v>
       </c>
       <c r="C15" t="n">
-        <v>382.0908441115434</v>
+        <v>445.5543329492906</v>
       </c>
       <c r="D15" t="n">
-        <v>265.1936863309359</v>
+        <v>328.657175168683</v>
       </c>
       <c r="E15" t="n">
-        <v>144.7008703232638</v>
+        <v>208.164359161011</v>
       </c>
       <c r="F15" t="n">
-        <v>35.74099050576839</v>
+        <v>99.20447934351557</v>
       </c>
       <c r="G15" t="n">
         <v>35.74099050576839</v>
@@ -5357,25 +5357,25 @@
         <v>54.34778796170229</v>
       </c>
       <c r="J15" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K15" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7610195839799</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M15" t="n">
-        <v>782.5121008715259</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N15" t="n">
-        <v>1224.80685838041</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O15" t="n">
-        <v>1436.742875867477</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.010322681675</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q15" t="n">
         <v>1687.264539063038</v>
@@ -5387,22 +5387,22 @@
         <v>1700.495187579394</v>
       </c>
       <c r="T15" t="n">
-        <v>1616.336472349805</v>
+        <v>1545.804889936498</v>
       </c>
       <c r="U15" t="n">
-        <v>1419.061584766099</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V15" t="n">
-        <v>1205.350057759133</v>
+        <v>1134.818475345826</v>
       </c>
       <c r="W15" t="n">
-        <v>992.1168894954615</v>
+        <v>921.5853070821544</v>
       </c>
       <c r="X15" t="n">
-        <v>815.7909076343543</v>
+        <v>745.2593252210472</v>
       </c>
       <c r="Y15" t="n">
-        <v>656.3889479981843</v>
+        <v>585.8573655848772</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.74099050576839</v>
+        <v>698.6591918457606</v>
       </c>
       <c r="C16" t="n">
-        <v>35.74099050576839</v>
+        <v>527.5658194074771</v>
       </c>
       <c r="D16" t="n">
-        <v>35.74099050576839</v>
+        <v>527.5658194074771</v>
       </c>
       <c r="E16" t="n">
-        <v>35.74099050576839</v>
+        <v>366.6550042757966</v>
       </c>
       <c r="F16" t="n">
-        <v>35.74099050576839</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G16" t="n">
         <v>35.74099050576839</v>
@@ -5439,16 +5439,16 @@
         <v>116.8648064467601</v>
       </c>
       <c r="K16" t="n">
-        <v>381.5865293505955</v>
+        <v>175.3063357648813</v>
       </c>
       <c r="L16" t="n">
-        <v>782.4625254678897</v>
+        <v>262.2032206471524</v>
       </c>
       <c r="M16" t="n">
-        <v>875.4027113546831</v>
+        <v>700.1097560482312</v>
       </c>
       <c r="N16" t="n">
-        <v>1243.239884391384</v>
+        <v>1126.056631485661</v>
       </c>
       <c r="O16" t="n">
         <v>1321.756545649937</v>
@@ -5460,28 +5460,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R16" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S16" t="n">
-        <v>1575.748442655587</v>
+        <v>1714.694162148916</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.333580915048</v>
+        <v>1714.694162148916</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.588206362654</v>
+        <v>1714.694162148916</v>
       </c>
       <c r="V16" t="n">
-        <v>783.7024613021761</v>
+        <v>1440.808417088438</v>
       </c>
       <c r="W16" t="n">
-        <v>504.6327968110504</v>
+        <v>1161.738752597312</v>
       </c>
       <c r="X16" t="n">
-        <v>266.2889346707338</v>
+        <v>923.3948904569959</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.55323605949849</v>
+        <v>698.6591918457606</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>677.2890990827962</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="C17" t="n">
-        <v>267.1645083960663</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="D17" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="E17" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="F17" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G17" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H17" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J17" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689899</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L17" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152979</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N17" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O17" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P17" t="n">
         <v>1601.546999092374</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288419</v>
@@ -5548,19 +5548,19 @@
         <v>1488.153676578333</v>
       </c>
       <c r="U17" t="n">
-        <v>1488.153676578333</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="V17" t="n">
-        <v>1488.153676578333</v>
+        <v>881.4281807667739</v>
       </c>
       <c r="W17" t="n">
-        <v>1488.153676578333</v>
+        <v>840.5196151285805</v>
       </c>
       <c r="X17" t="n">
-        <v>1087.510278747286</v>
+        <v>439.8762172975331</v>
       </c>
       <c r="Y17" t="n">
-        <v>1087.510278747286</v>
+        <v>38.93954424562315</v>
       </c>
     </row>
     <row r="18">
@@ -5585,46 +5585,46 @@
         <v>201.1787451074734</v>
       </c>
       <c r="G18" t="n">
-        <v>95.3426662485606</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J18" t="n">
-        <v>335.4150222482922</v>
+        <v>91.74661827365901</v>
       </c>
       <c r="K18" t="n">
-        <v>462.7902645623569</v>
+        <v>534.0413757825427</v>
       </c>
       <c r="L18" t="n">
-        <v>652.8226261026791</v>
+        <v>724.0737373228649</v>
       </c>
       <c r="M18" t="n">
-        <v>882.4209603825697</v>
+        <v>953.6720716027554</v>
       </c>
       <c r="N18" t="n">
-        <v>1123.931580570561</v>
+        <v>1195.182691790746</v>
       </c>
       <c r="O18" t="n">
-        <v>1335.867598057628</v>
+        <v>1407.118709277814</v>
       </c>
       <c r="P18" t="n">
-        <v>1498.135044871826</v>
+        <v>1686.980039158656</v>
       </c>
       <c r="Q18" t="n">
-        <v>1687.264539063038</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936498</v>
+        <v>1664.877069170902</v>
       </c>
       <c r="U18" t="n">
         <v>1467.602181587196</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.74099050576839</v>
+        <v>579.6391385299509</v>
       </c>
       <c r="C19" t="n">
-        <v>35.74099050576839</v>
+        <v>408.5457660916674</v>
       </c>
       <c r="D19" t="n">
-        <v>35.74099050576839</v>
+        <v>408.5457660916674</v>
       </c>
       <c r="E19" t="n">
-        <v>35.74099050576839</v>
+        <v>408.5457660916674</v>
       </c>
       <c r="F19" t="n">
-        <v>35.74099050576839</v>
+        <v>408.5457660916674</v>
       </c>
       <c r="G19" t="n">
-        <v>35.74099050576839</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H19" t="n">
-        <v>35.74099050576839</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J19" t="n">
         <v>51.86344281542368</v>
@@ -5679,46 +5679,46 @@
         <v>110.3049721335449</v>
       </c>
       <c r="L19" t="n">
-        <v>451.4831578130901</v>
+        <v>451.4831578130897</v>
       </c>
       <c r="M19" t="n">
-        <v>889.389693214169</v>
+        <v>889.3896932141686</v>
       </c>
       <c r="N19" t="n">
-        <v>1315.336568651599</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O19" t="n">
         <v>1708.927989328892</v>
       </c>
       <c r="P19" t="n">
-        <v>1768.392458898499</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T19" t="n">
-        <v>1522.221041755362</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U19" t="n">
-        <v>1239.475667202968</v>
+        <v>1504.304150736025</v>
       </c>
       <c r="V19" t="n">
-        <v>965.5899221424904</v>
+        <v>1230.418405675547</v>
       </c>
       <c r="W19" t="n">
-        <v>686.5202576513648</v>
+        <v>1230.418405675547</v>
       </c>
       <c r="X19" t="n">
-        <v>448.1763955110481</v>
+        <v>992.0745435352305</v>
       </c>
       <c r="Y19" t="n">
-        <v>223.4406968998128</v>
+        <v>767.3388449239952</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1787.049525288419</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="C20" t="n">
-        <v>1787.049525288419</v>
+        <v>874.310171775039</v>
       </c>
       <c r="D20" t="n">
-        <v>1382.58559538148</v>
+        <v>874.310171775039</v>
       </c>
       <c r="E20" t="n">
-        <v>1155.360683429091</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F20" t="n">
-        <v>734.3302713827786</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G20" t="n">
-        <v>327.7588696812413</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H20" t="n">
         <v>38.93954424562315</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J20" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K20" t="n">
-        <v>323.229055744659</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064787</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N20" t="n">
         <v>1126.349039004049</v>
@@ -5770,34 +5770,34 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="V20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="W20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="X20" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.371435513679</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.049525288419</v>
+        <v>1284.434762461769</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>681.5236699643028</v>
+        <v>642.8292205329957</v>
       </c>
       <c r="C21" t="n">
-        <v>547.5285987132485</v>
+        <v>508.8341492819414</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6314409326409</v>
+        <v>391.9369915013338</v>
       </c>
       <c r="E21" t="n">
-        <v>310.1386249249689</v>
+        <v>271.4441754936618</v>
       </c>
       <c r="F21" t="n">
-        <v>201.1787451074734</v>
+        <v>162.4842956761663</v>
       </c>
       <c r="G21" t="n">
-        <v>95.3426662485606</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I21" t="n">
-        <v>54.34778796170229</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J21" t="n">
-        <v>354.0218197042262</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K21" t="n">
-        <v>481.3970620182909</v>
+        <v>552.6481732384766</v>
       </c>
       <c r="L21" t="n">
-        <v>671.4294235586131</v>
+        <v>742.6805347787988</v>
       </c>
       <c r="M21" t="n">
-        <v>901.0277578385036</v>
+        <v>972.2788690586893</v>
       </c>
       <c r="N21" t="n">
-        <v>1142.538378026494</v>
+        <v>1213.78948924668</v>
       </c>
       <c r="O21" t="n">
-        <v>1436.742875867477</v>
+        <v>1425.725506733748</v>
       </c>
       <c r="P21" t="n">
         <v>1599.010322681675</v>
       </c>
       <c r="Q21" t="n">
-        <v>1687.264539063038</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R21" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T21" t="n">
-        <v>1632.359227645523</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U21" t="n">
-        <v>1435.084340061818</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="V21" t="n">
-        <v>1370.787812360838</v>
+        <v>1332.093362929531</v>
       </c>
       <c r="W21" t="n">
-        <v>1157.554644097167</v>
+        <v>1118.86019466586</v>
       </c>
       <c r="X21" t="n">
-        <v>981.2286622360594</v>
+        <v>942.5342128047523</v>
       </c>
       <c r="Y21" t="n">
-        <v>821.8267025998895</v>
+        <v>783.1322531685823</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.2986106118923</v>
+        <v>65.15461229828591</v>
       </c>
       <c r="C22" t="n">
-        <v>324.2986106118923</v>
+        <v>65.15461229828591</v>
       </c>
       <c r="D22" t="n">
-        <v>324.2986106118923</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="E22" t="n">
-        <v>324.2986106118923</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="F22" t="n">
-        <v>324.2986106118923</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G22" t="n">
-        <v>158.0157227312729</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H22" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J22" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K22" t="n">
-        <v>110.3049721335449</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L22" t="n">
-        <v>511.1809682508391</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M22" t="n">
-        <v>628.4922097410511</v>
+        <v>889.3896932141686</v>
       </c>
       <c r="N22" t="n">
-        <v>1054.439085178481</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O22" t="n">
-        <v>1448.030505855774</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P22" t="n">
-        <v>1768.392458898499</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915048</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U22" t="n">
-        <v>1340.333580915048</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V22" t="n">
-        <v>1066.44783585457</v>
+        <v>995.0035439350079</v>
       </c>
       <c r="W22" t="n">
-        <v>787.3781713634442</v>
+        <v>715.9338794438822</v>
       </c>
       <c r="X22" t="n">
-        <v>549.0343092231276</v>
+        <v>477.5900173035656</v>
       </c>
       <c r="Y22" t="n">
-        <v>324.2986106118923</v>
+        <v>252.8543186923303</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1617.613383394351</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="C23" t="n">
-        <v>1207.488792707621</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="D23" t="n">
-        <v>1207.488792707621</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="E23" t="n">
-        <v>793.1485772245178</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="F23" t="n">
-        <v>372.1181651782053</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632699</v>
       </c>
       <c r="K23" t="n">
-        <v>328.0447565000673</v>
+        <v>437.0184264389389</v>
       </c>
       <c r="L23" t="n">
-        <v>567.1130254618869</v>
+        <v>676.0866954007586</v>
       </c>
       <c r="M23" t="n">
-        <v>845.9486603707057</v>
+        <v>954.9223303095774</v>
       </c>
       <c r="N23" t="n">
-        <v>1131.164739759458</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O23" t="n">
-        <v>1395.085414945227</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P23" t="n">
-        <v>1606.362699847782</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q23" t="n">
-        <v>1854.486849518398</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R23" t="n">
         <v>2027.83456305884</v>
@@ -6025,16 +6025,16 @@
         <v>2027.83456305884</v>
       </c>
       <c r="V23" t="n">
-        <v>2027.83456305884</v>
+        <v>1677.997008395321</v>
       </c>
       <c r="W23" t="n">
-        <v>2027.83456305884</v>
+        <v>1658.929343510161</v>
       </c>
       <c r="X23" t="n">
-        <v>2027.83456305884</v>
+        <v>1258.285945679113</v>
       </c>
       <c r="Y23" t="n">
-        <v>2027.83456305884</v>
+        <v>857.3492726272036</v>
       </c>
     </row>
     <row r="24">
@@ -6050,43 +6050,43 @@
         <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
-        <v>435.4471416880497</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E24" t="n">
-        <v>314.9543256803777</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F24" t="n">
-        <v>205.9944458628822</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
         <v>100.1583670039693</v>
       </c>
       <c r="H24" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I24" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>115.1691164850014</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K24" t="n">
-        <v>242.5443587990661</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L24" t="n">
-        <v>432.5767203393883</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M24" t="n">
-        <v>662.1750546192789</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N24" t="n">
-        <v>903.6856748072698</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O24" t="n">
-        <v>1115.621692294337</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P24" t="n">
-        <v>1433.825203448322</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q24" t="n">
         <v>1928.049576833459</v>
@@ -6095,16 +6095,16 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S24" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U24" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V24" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W24" t="n">
         <v>1162.370344852575</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>824.0998863616404</v>
+        <v>542.5640774694884</v>
       </c>
       <c r="C25" t="n">
-        <v>653.0065139233569</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="D25" t="n">
-        <v>532.3815201628854</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="E25" t="n">
         <v>371.4707050312049</v>
@@ -6138,16 +6138,16 @@
         <v>206.8395791417962</v>
       </c>
       <c r="G25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J25" t="n">
-        <v>56.67914357083211</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K25" t="n">
         <v>115.1206728889534</v>
@@ -6177,22 +6177,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T25" t="n">
-        <v>2027.83456305884</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U25" t="n">
-        <v>2027.83456305884</v>
+        <v>1509.674326765907</v>
       </c>
       <c r="V25" t="n">
-        <v>1753.948817998362</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="W25" t="n">
-        <v>1474.879153507237</v>
+        <v>956.7189172143035</v>
       </c>
       <c r="X25" t="n">
-        <v>1236.53529136692</v>
+        <v>767.2997760807237</v>
       </c>
       <c r="Y25" t="n">
-        <v>1011.799592755685</v>
+        <v>542.5640774694884</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1216.969985563303</v>
+        <v>1208.344335924788</v>
       </c>
       <c r="C26" t="n">
-        <v>806.8453948765736</v>
+        <v>1208.344335924788</v>
       </c>
       <c r="D26" t="n">
-        <v>402.3814649696341</v>
+        <v>1208.344335924788</v>
       </c>
       <c r="E26" t="n">
-        <v>40.55669126117681</v>
+        <v>794.0041204416848</v>
       </c>
       <c r="F26" t="n">
-        <v>40.55669126117681</v>
+        <v>372.9737083953723</v>
       </c>
       <c r="G26" t="n">
-        <v>40.55669126117681</v>
+        <v>332.5745704366497</v>
       </c>
       <c r="H26" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I26" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
         <v>147.3860862243982</v>
       </c>
       <c r="K26" t="n">
-        <v>437.0184264389392</v>
+        <v>328.0447565000673</v>
       </c>
       <c r="L26" t="n">
-        <v>676.0866954007588</v>
+        <v>567.1130254618869</v>
       </c>
       <c r="M26" t="n">
-        <v>954.9223303095777</v>
+        <v>845.9486603707057</v>
       </c>
       <c r="N26" t="n">
-        <v>1240.13840969833</v>
+        <v>1131.164739759458</v>
       </c>
       <c r="O26" t="n">
-        <v>1504.059084884098</v>
+        <v>1395.085414945227</v>
       </c>
       <c r="P26" t="n">
-        <v>1715.336369786654</v>
+        <v>1606.362699847782</v>
       </c>
       <c r="Q26" t="n">
-        <v>1854.486849518398</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R26" t="n">
         <v>2027.83456305884</v>
@@ -6256,22 +6256,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T26" t="n">
-        <v>2027.83456305884</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U26" t="n">
-        <v>2027.83456305884</v>
+        <v>1558.181890588307</v>
       </c>
       <c r="V26" t="n">
-        <v>2027.83456305884</v>
+        <v>1208.344335924788</v>
       </c>
       <c r="W26" t="n">
-        <v>2027.83456305884</v>
+        <v>1208.344335924788</v>
       </c>
       <c r="X26" t="n">
-        <v>1627.191165227793</v>
+        <v>1208.344335924788</v>
       </c>
       <c r="Y26" t="n">
-        <v>1627.191165227793</v>
+        <v>1208.344335924788</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C27" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D27" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E27" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F27" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G27" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H27" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I27" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>486.4501396158342</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>676.4825011561564</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M27" t="n">
-        <v>906.080835436047</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N27" t="n">
-        <v>1147.591455624038</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1359.527473111105</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1521.794919925303</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6338,7 +6338,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V27" t="n">
         <v>1375.603513116246</v>
@@ -6347,10 +6347,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>537.1920047205496</v>
+        <v>532.0555235082309</v>
       </c>
       <c r="C28" t="n">
-        <v>366.0986322822661</v>
+        <v>360.9621510699473</v>
       </c>
       <c r="D28" t="n">
-        <v>366.0986322822661</v>
+        <v>201.4675063928573</v>
       </c>
       <c r="E28" t="n">
-        <v>205.1878171505855</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="F28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>121.6805072021685</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K28" t="n">
-        <v>180.1220365202897</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L28" t="n">
-        <v>580.9980326375839</v>
+        <v>515.9966690062475</v>
       </c>
       <c r="M28" t="n">
-        <v>1018.904568038663</v>
+        <v>953.9032044073265</v>
       </c>
       <c r="N28" t="n">
-        <v>1444.851443476092</v>
+        <v>1379.850079844756</v>
       </c>
       <c r="O28" t="n">
-        <v>1838.442864153386</v>
+        <v>1773.44150052205</v>
       </c>
       <c r="P28" t="n">
-        <v>1897.907333722993</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>2027.83456305884</v>
+        <v>2018.535574757825</v>
       </c>
       <c r="S28" t="n">
-        <v>2027.83456305884</v>
+        <v>2018.535574757825</v>
       </c>
       <c r="T28" t="n">
-        <v>2023.672055970143</v>
+        <v>2018.535574757825</v>
       </c>
       <c r="U28" t="n">
-        <v>1740.926681417749</v>
+        <v>1735.790200205431</v>
       </c>
       <c r="V28" t="n">
-        <v>1467.040936357271</v>
+        <v>1461.904455144953</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.971271866146</v>
+        <v>1182.834790653827</v>
       </c>
       <c r="X28" t="n">
-        <v>949.6274097258292</v>
+        <v>944.4909285135105</v>
       </c>
       <c r="Y28" t="n">
-        <v>724.8917111145939</v>
+        <v>719.7552299022752</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>450.6812819479067</v>
+        <v>1531.482266006758</v>
       </c>
       <c r="C29" t="n">
-        <v>40.55669126117681</v>
+        <v>1282.49872049213</v>
       </c>
       <c r="D29" t="n">
-        <v>40.55669126117681</v>
+        <v>1282.49872049213</v>
       </c>
       <c r="E29" t="n">
-        <v>40.55669126117681</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="F29" t="n">
-        <v>40.55669126117681</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J29" t="n">
         <v>147.3860862243982</v>
@@ -6469,46 +6469,46 @@
         <v>328.0447565000673</v>
       </c>
       <c r="L29" t="n">
-        <v>676.0866954007588</v>
+        <v>567.1130254618869</v>
       </c>
       <c r="M29" t="n">
-        <v>954.9223303095777</v>
+        <v>845.9486603707057</v>
       </c>
       <c r="N29" t="n">
-        <v>1240.13840969833</v>
+        <v>1131.164739759458</v>
       </c>
       <c r="O29" t="n">
-        <v>1504.059084884098</v>
+        <v>1395.085414945227</v>
       </c>
       <c r="P29" t="n">
-        <v>1715.336369786654</v>
+        <v>1606.362699847782</v>
       </c>
       <c r="Q29" t="n">
-        <v>1854.486849518398</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.482532495354</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.839134664306</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="Y29" t="n">
-        <v>860.9024616123961</v>
+        <v>1941.703445671247</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E30" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F30" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G30" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H30" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I30" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J30" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>486.4501396158342</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L30" t="n">
-        <v>676.4825011561564</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M30" t="n">
-        <v>906.080835436047</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N30" t="n">
-        <v>1147.591455624038</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O30" t="n">
-        <v>1359.527473111105</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P30" t="n">
-        <v>1521.794919925303</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q30" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
@@ -6575,7 +6575,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U30" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V30" t="n">
         <v>1375.603513116246</v>
@@ -6584,10 +6584,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>824.0998863616404</v>
+        <v>532.3815201628854</v>
       </c>
       <c r="C31" t="n">
-        <v>653.0065139233569</v>
+        <v>532.3815201628854</v>
       </c>
       <c r="D31" t="n">
         <v>532.3815201628854</v>
@@ -6612,31 +6612,31 @@
         <v>206.8395791417962</v>
       </c>
       <c r="G31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J31" t="n">
-        <v>121.6805072021685</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K31" t="n">
-        <v>180.1220365202897</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L31" t="n">
-        <v>580.9980326375839</v>
+        <v>515.9966690062475</v>
       </c>
       <c r="M31" t="n">
-        <v>1018.904568038663</v>
+        <v>953.9032044073265</v>
       </c>
       <c r="N31" t="n">
-        <v>1444.851443476092</v>
+        <v>1379.850079844756</v>
       </c>
       <c r="O31" t="n">
-        <v>1838.442864153386</v>
+        <v>1773.44150052205</v>
       </c>
       <c r="P31" t="n">
         <v>2009.17749666892</v>
@@ -6648,25 +6648,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>2027.83456305884</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T31" t="n">
-        <v>2027.83456305884</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U31" t="n">
-        <v>2027.83456305884</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="V31" t="n">
-        <v>1753.948817998362</v>
+        <v>1349.003130161241</v>
       </c>
       <c r="W31" t="n">
-        <v>1474.879153507237</v>
+        <v>1069.933465670115</v>
       </c>
       <c r="X31" t="n">
-        <v>1236.53529136692</v>
+        <v>944.8169251681651</v>
       </c>
       <c r="Y31" t="n">
-        <v>1011.799592755685</v>
+        <v>720.0812265569298</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1216.676710342441</v>
+        <v>1617.613383394351</v>
       </c>
       <c r="C32" t="n">
-        <v>1216.676710342441</v>
+        <v>1207.488792707621</v>
       </c>
       <c r="D32" t="n">
-        <v>812.2127804355011</v>
+        <v>1207.488792707621</v>
       </c>
       <c r="E32" t="n">
-        <v>397.8725649523979</v>
+        <v>793.1485772245173</v>
       </c>
       <c r="F32" t="n">
-        <v>397.8725649523979</v>
+        <v>372.1181651782049</v>
       </c>
       <c r="G32" t="n">
         <v>40.5566912611768</v>
@@ -6700,28 +6700,28 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632699</v>
       </c>
       <c r="K32" t="n">
-        <v>564.01409351508</v>
+        <v>437.0184264389389</v>
       </c>
       <c r="L32" t="n">
-        <v>803.0823624768997</v>
+        <v>676.0866954007586</v>
       </c>
       <c r="M32" t="n">
-        <v>1081.917997385719</v>
+        <v>954.9223303095774</v>
       </c>
       <c r="N32" t="n">
-        <v>1367.134076774471</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O32" t="n">
-        <v>1631.054751960239</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P32" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q32" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R32" t="n">
         <v>2027.83456305884</v>
@@ -6745,7 +6745,7 @@
         <v>2027.83456305884</v>
       </c>
       <c r="Y32" t="n">
-        <v>1626.89789000693</v>
+        <v>2027.83456305884</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197114</v>
+        <v>686.3393707197113</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686571</v>
+        <v>552.3442994686569</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880493</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803773</v>
       </c>
       <c r="F33" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628819</v>
       </c>
       <c r="G33" t="n">
-        <v>100.1583670039693</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H33" t="n">
         <v>40.5566912611768</v>
@@ -6779,28 +6779,28 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906744</v>
+        <v>340.2307230037007</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9375613431321</v>
+        <v>467.6059653177654</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9699228834544</v>
+        <v>657.6383268580876</v>
       </c>
       <c r="M33" t="n">
-        <v>915.8589772405173</v>
+        <v>887.2366611379781</v>
       </c>
       <c r="N33" t="n">
-        <v>1157.369597428508</v>
+        <v>1128.747281325969</v>
       </c>
       <c r="O33" t="n">
-        <v>1659.258651785571</v>
+        <v>1340.683298813036</v>
       </c>
       <c r="P33" t="n">
-        <v>1821.526098599769</v>
+        <v>1502.950745627234</v>
       </c>
       <c r="Q33" t="n">
-        <v>1928.049576833459</v>
+        <v>1997.175119012371</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6812,7 +6812,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.315040123213</v>
+        <v>1589.315040123212</v>
       </c>
       <c r="V33" t="n">
         <v>1375.603513116246</v>
@@ -6821,10 +6821,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.044362991468</v>
+        <v>986.0443629914679</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.642403355298</v>
+        <v>826.6424033552979</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>815.2402568697245</v>
+        <v>305.9396500687072</v>
       </c>
       <c r="C34" t="n">
-        <v>644.146884431441</v>
+        <v>134.8462776304237</v>
       </c>
       <c r="D34" t="n">
-        <v>532.3815201628854</v>
+        <v>134.8462776304237</v>
       </c>
       <c r="E34" t="n">
-        <v>371.4707050312049</v>
+        <v>134.8462776304237</v>
       </c>
       <c r="F34" t="n">
-        <v>206.8395791417962</v>
+        <v>134.8462776304237</v>
       </c>
       <c r="G34" t="n">
         <v>40.5566912611768</v>
@@ -6888,22 +6888,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T34" t="n">
-        <v>2027.83456305884</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U34" t="n">
-        <v>1745.089188506446</v>
+        <v>1509.674326765907</v>
       </c>
       <c r="V34" t="n">
-        <v>1745.089188506446</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.019524015321</v>
+        <v>956.7189172143035</v>
       </c>
       <c r="X34" t="n">
-        <v>1227.675661875004</v>
+        <v>718.3750550739869</v>
       </c>
       <c r="Y34" t="n">
-        <v>1002.939963263769</v>
+        <v>493.6393564627516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>850.3295110994377</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="C35" t="n">
-        <v>440.2049204127078</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="D35" t="n">
-        <v>35.74099050576838</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="E35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J35" t="n">
         <v>142.5703854689898</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L35" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M35" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N35" t="n">
         <v>1126.349039004049</v>
@@ -6958,31 +6958,31 @@
         <v>1601.546999092374</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R35" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S35" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T35" t="n">
-        <v>1651.909581982395</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U35" t="n">
-        <v>1651.909581982395</v>
+        <v>1261.239058705271</v>
       </c>
       <c r="V35" t="n">
-        <v>1651.909581982395</v>
+        <v>1261.239058705271</v>
       </c>
       <c r="W35" t="n">
-        <v>1651.909581982395</v>
+        <v>1261.239058705271</v>
       </c>
       <c r="X35" t="n">
-        <v>1251.266184151348</v>
+        <v>1261.239058705271</v>
       </c>
       <c r="Y35" t="n">
-        <v>850.3295110994377</v>
+        <v>860.3023856533612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>621.9219942215105</v>
+        <v>455.6666323661997</v>
       </c>
       <c r="C36" t="n">
-        <v>487.9269229704562</v>
+        <v>321.6715611151454</v>
       </c>
       <c r="D36" t="n">
-        <v>371.0297651898487</v>
+        <v>321.6715611151454</v>
       </c>
       <c r="E36" t="n">
-        <v>250.5369491821766</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="F36" t="n">
-        <v>141.5770693646812</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576838</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I36" t="n">
-        <v>54.34778796170228</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J36" t="n">
-        <v>110.7794559852364</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K36" t="n">
-        <v>238.1546982993011</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L36" t="n">
-        <v>428.1870598396233</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M36" t="n">
-        <v>870.481817348507</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N36" t="n">
-        <v>1312.776574857391</v>
+        <v>1224.80685838041</v>
       </c>
       <c r="O36" t="n">
-        <v>1524.712592344458</v>
+        <v>1436.742875867477</v>
       </c>
       <c r="P36" t="n">
-        <v>1686.980039158656</v>
+        <v>1599.010322681675</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R36" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S36" t="n">
-        <v>1787.049525288419</v>
+        <v>1710.607486996303</v>
       </c>
       <c r="T36" t="n">
-        <v>1632.359227645523</v>
+        <v>1555.917189353407</v>
       </c>
       <c r="U36" t="n">
-        <v>1435.084340061817</v>
+        <v>1358.642301769701</v>
       </c>
       <c r="V36" t="n">
-        <v>1221.372813054851</v>
+        <v>1144.930774762735</v>
       </c>
       <c r="W36" t="n">
-        <v>1008.13964479118</v>
+        <v>931.6976064990636</v>
       </c>
       <c r="X36" t="n">
-        <v>921.6269864932672</v>
+        <v>755.3716246379563</v>
       </c>
       <c r="Y36" t="n">
-        <v>762.2250268570972</v>
+        <v>595.9696650017863</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="C37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="D37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="E37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K37" t="n">
-        <v>110.3049721335449</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L37" t="n">
-        <v>511.1809682508391</v>
+        <v>468.4834142328665</v>
       </c>
       <c r="M37" t="n">
-        <v>949.087503651918</v>
+        <v>906.3899496339454</v>
       </c>
       <c r="N37" t="n">
-        <v>1315.336568651598</v>
+        <v>1000.302523623789</v>
       </c>
       <c r="O37" t="n">
-        <v>1708.927989328892</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P37" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q37" t="n">
         <v>1787.049525288419</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1275.575547942124</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="C38" t="n">
-        <v>1275.575547942124</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1116180351842</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="E38" t="n">
-        <v>456.7714025520808</v>
+        <v>1155.360683429091</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576837</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H38" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J38" t="n">
         <v>142.5703854689898</v>
@@ -7189,37 +7189,37 @@
         <v>1126.349039004049</v>
       </c>
       <c r="O38" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P38" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q38" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R38" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T38" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U38" t="n">
-        <v>1659.335848806955</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="V38" t="n">
-        <v>1659.335848806955</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="W38" t="n">
-        <v>1275.575547942124</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="X38" t="n">
-        <v>1275.575547942124</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="Y38" t="n">
-        <v>1275.575547942124</v>
+        <v>1231.265735430294</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>561.0308539566308</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C39" t="n">
-        <v>427.0357827055765</v>
+        <v>487.9269229704562</v>
       </c>
       <c r="D39" t="n">
-        <v>310.1386249249689</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E39" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F39" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G39" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I39" t="n">
-        <v>54.34778796170227</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J39" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K39" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7610195839799</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M39" t="n">
-        <v>782.5121008715255</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288419</v>
@@ -7283,22 +7283,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T39" t="n">
-        <v>1661.281410943838</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U39" t="n">
-        <v>1464.006523360132</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V39" t="n">
-        <v>1250.294996353166</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W39" t="n">
-        <v>1037.061828089495</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X39" t="n">
-        <v>860.7358462283875</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y39" t="n">
-        <v>701.3338865922175</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>206.8343629440519</v>
+        <v>678.753848967053</v>
       </c>
       <c r="C40" t="n">
-        <v>35.74099050576837</v>
+        <v>507.6604765287696</v>
       </c>
       <c r="D40" t="n">
-        <v>35.74099050576837</v>
+        <v>507.6604765287696</v>
       </c>
       <c r="E40" t="n">
-        <v>35.74099050576837</v>
+        <v>507.6604765287696</v>
       </c>
       <c r="F40" t="n">
-        <v>35.74099050576837</v>
+        <v>343.0293506393609</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J40" t="n">
-        <v>51.86344281542367</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K40" t="n">
-        <v>110.3049721335449</v>
+        <v>238.3123127249818</v>
       </c>
       <c r="L40" t="n">
-        <v>511.1809682508391</v>
+        <v>325.2091976072529</v>
       </c>
       <c r="M40" t="n">
-        <v>949.087503651918</v>
+        <v>763.1157330083317</v>
       </c>
       <c r="N40" t="n">
-        <v>1315.336568651598</v>
+        <v>1189.062608445761</v>
       </c>
       <c r="O40" t="n">
-        <v>1708.927989328892</v>
+        <v>1582.654029123055</v>
       </c>
       <c r="P40" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q40" t="n">
         <v>1787.049525288419</v>
@@ -7359,25 +7359,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S40" t="n">
-        <v>1617.518699191836</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T40" t="n">
-        <v>1617.518699191836</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U40" t="n">
-        <v>1410.569039641252</v>
+        <v>1504.304150736026</v>
       </c>
       <c r="V40" t="n">
-        <v>1136.683294580774</v>
+        <v>1230.418405675548</v>
       </c>
       <c r="W40" t="n">
-        <v>857.6136300896483</v>
+        <v>951.3487411844219</v>
       </c>
       <c r="X40" t="n">
-        <v>619.2697679493316</v>
+        <v>713.0048790441053</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.5340693380963</v>
+        <v>678.753848967053</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1152.162129689236</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="C41" t="n">
-        <v>1152.162129689236</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="D41" t="n">
-        <v>1152.162129689236</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="E41" t="n">
-        <v>1152.162129689236</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="F41" t="n">
-        <v>731.1317176429238</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G41" t="n">
-        <v>324.5603159413865</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H41" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I41" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J41" t="n">
-        <v>142.5703854689895</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2290557446585</v>
+        <v>323.2290557446593</v>
       </c>
       <c r="L41" t="n">
-        <v>562.2973247064781</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M41" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N41" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O41" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P41" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q41" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R41" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S41" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U41" t="n">
-        <v>1787.049525288419</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="V41" t="n">
-        <v>1787.049525288419</v>
+        <v>1159.010461392043</v>
       </c>
       <c r="W41" t="n">
-        <v>1787.049525288419</v>
+        <v>1159.010461392043</v>
       </c>
       <c r="X41" t="n">
-        <v>1553.098802741146</v>
+        <v>1159.010461392043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1152.162129689236</v>
+        <v>1159.010461392043</v>
       </c>
     </row>
     <row r="42">
@@ -7481,52 +7481,52 @@
         <v>201.1787451074734</v>
       </c>
       <c r="G42" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H42" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I42" t="n">
-        <v>54.34778796170227</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J42" t="n">
-        <v>156.2629893634551</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K42" t="n">
-        <v>283.6382316775197</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L42" t="n">
-        <v>473.670593217842</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M42" t="n">
-        <v>703.2689274977325</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N42" t="n">
-        <v>944.7795476857235</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O42" t="n">
-        <v>1156.715565172791</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P42" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q42" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R42" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.495187579393</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T42" t="n">
-        <v>1700.495187579393</v>
+        <v>1545.804889936498</v>
       </c>
       <c r="U42" t="n">
-        <v>1584.499339367804</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V42" t="n">
-        <v>1370.787812360838</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="W42" t="n">
         <v>1157.554644097167</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.24302139117</v>
+        <v>834.5281828864149</v>
       </c>
       <c r="C43" t="n">
-        <v>526.1496489528865</v>
+        <v>663.4348104481314</v>
       </c>
       <c r="D43" t="n">
-        <v>366.6550042757965</v>
+        <v>503.9401657710414</v>
       </c>
       <c r="E43" t="n">
-        <v>366.6550042757965</v>
+        <v>343.0293506393609</v>
       </c>
       <c r="F43" t="n">
-        <v>202.0238783863878</v>
+        <v>343.0293506393609</v>
       </c>
       <c r="G43" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H43" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I43" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J43" t="n">
-        <v>116.86480644676</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K43" t="n">
-        <v>175.3063357648813</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L43" t="n">
-        <v>325.2091976072524</v>
+        <v>468.4834142328665</v>
       </c>
       <c r="M43" t="n">
-        <v>763.1157330083313</v>
+        <v>906.3899496339454</v>
       </c>
       <c r="N43" t="n">
-        <v>1189.062608445761</v>
+        <v>1332.336825071375</v>
       </c>
       <c r="O43" t="n">
-        <v>1582.654029123055</v>
+        <v>1410.853486329929</v>
       </c>
       <c r="P43" t="n">
-        <v>1642.118498692661</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q43" t="n">
         <v>1787.049525288419</v>
@@ -7596,25 +7596,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S43" t="n">
-        <v>1787.049525288419</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T43" t="n">
-        <v>1787.049525288419</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.049525288419</v>
+        <v>1296.113634340937</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.091953027892</v>
+        <v>1022.227889280459</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.022288536766</v>
+        <v>1022.227889280459</v>
       </c>
       <c r="X43" t="n">
-        <v>1109.67842639645</v>
+        <v>1022.227889280459</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.9427277852144</v>
+        <v>1022.227889280459</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>967.5592981543664</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="C44" t="n">
-        <v>967.5592981543664</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="D44" t="n">
-        <v>563.0953682474269</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="E44" t="n">
-        <v>148.7551527643236</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="F44" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I44" t="n">
         <v>35.74099050576837</v>
@@ -7675,25 +7675,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S44" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T44" t="n">
-        <v>1574.284793965925</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U44" t="n">
-        <v>1317.396852817886</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="V44" t="n">
-        <v>967.5592981543664</v>
+        <v>1351.080853237306</v>
       </c>
       <c r="W44" t="n">
-        <v>967.5592981543664</v>
+        <v>967.320552372475</v>
       </c>
       <c r="X44" t="n">
-        <v>967.5592981543664</v>
+        <v>566.6771545414276</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.5592981543664</v>
+        <v>327.7588696812413</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.9219942215105</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="C45" t="n">
-        <v>487.9269229704562</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D45" t="n">
-        <v>371.0297651898487</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E45" t="n">
-        <v>250.5369491821766</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F45" t="n">
-        <v>141.5770693646812</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G45" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H45" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J45" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K45" t="n">
-        <v>563.6655423722052</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L45" t="n">
-        <v>753.6979039125275</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M45" t="n">
-        <v>983.2962381924181</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N45" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O45" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P45" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q45" t="n">
         <v>1687.264539063037</v>
@@ -7754,25 +7754,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T45" t="n">
-        <v>1722.172551208718</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U45" t="n">
-        <v>1524.897663625012</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V45" t="n">
-        <v>1311.186136618046</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W45" t="n">
-        <v>1097.952968354374</v>
+        <v>1023.559572846112</v>
       </c>
       <c r="X45" t="n">
-        <v>921.6269864932672</v>
+        <v>847.2335909850051</v>
       </c>
       <c r="Y45" t="n">
-        <v>762.2250268570972</v>
+        <v>687.8316313488351</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1086.40989498774</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="C46" t="n">
-        <v>915.3165225494567</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="D46" t="n">
-        <v>755.8218778723667</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="E46" t="n">
-        <v>594.9110627406862</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="F46" t="n">
-        <v>430.2799368512775</v>
+        <v>65.15461229828568</v>
       </c>
       <c r="G46" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H46" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
@@ -7812,46 +7812,46 @@
         <v>175.3063357648813</v>
       </c>
       <c r="L46" t="n">
-        <v>451.4831578130892</v>
+        <v>262.2032206471523</v>
       </c>
       <c r="M46" t="n">
-        <v>889.3896932141681</v>
+        <v>700.1097560482312</v>
       </c>
       <c r="N46" t="n">
-        <v>1315.336568651598</v>
+        <v>1126.056631485661</v>
       </c>
       <c r="O46" t="n">
-        <v>1708.927989328892</v>
+        <v>1519.648052162955</v>
       </c>
       <c r="P46" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q46" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R46" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S46" t="n">
-        <v>1575.748442655586</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T46" t="n">
-        <v>1575.748442655586</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U46" t="n">
-        <v>1575.748442655586</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V46" t="n">
-        <v>1575.748442655586</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="W46" t="n">
-        <v>1575.748442655586</v>
+        <v>715.933879443882</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.84529999302</v>
+        <v>477.5900173035654</v>
       </c>
       <c r="Y46" t="n">
-        <v>1274.109601381785</v>
+        <v>252.8543186923301</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.2291760894428</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
@@ -8856,19 +8856,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>276.6915141887442</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>66.72353275163798</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>126.416916169349</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>202.8122599200938</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9087,19 +9087,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>276.6915141887442</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>118.366922126993</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
@@ -9242,10 +9242,10 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>318.100520398807</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>118.7817000673176</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.8942200099488</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>256.8497987851254</v>
+        <v>256.8497987851249</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.100520398807</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>83.09947510496502</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>11.12865569063541</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>24.61722788224097</v>
+        <v>14.12826450453079</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9576,7 +9576,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>110.0744140796684</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.0744140796685</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>157.5111761007952</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9813,7 +9813,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>178.052047047741</v>
+        <v>178.0520470477408</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>110.0744140796686</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.0744140796682</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>265.1642204774769</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>178.0520470477408</v>
       </c>
       <c r="Q28" t="n">
-        <v>112.394103985785</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>110.0744140796687</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>265.1642204774769</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>112.3941039857849</v>
+        <v>178.0520470477408</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>110.0744140796684</v>
       </c>
       <c r="K32" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.45379985083515</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>19.0345194929989</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4303436925691386</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>214.8448719484779</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>202.8122599200937</v>
+        <v>83.09947510496482</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>275.0873646564</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>245.3912735026207</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>126.4169161693486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>202.8122599200936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>63.64240096979847</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>275.0873646563996</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>46.37330670087086</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>282.8558693885714</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,10 +11220,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>63.64240096979805</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,10 +11232,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>173.5359018112393</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>101.8942200099478</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>191.1918557231686</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.64240096979804</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
-        <v>273.0470657666425</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>153.9799833472453</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23348,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>69.82626658917404</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>125.7393626255424</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.0036270980518</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>128.6595666882309</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>329.0135858790333</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9499424841662</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>41.94886412095399</v>
       </c>
       <c r="H15" t="n">
         <v>59.00565898536429</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>69.82626658917395</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0685862319112</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>139.5954175304433</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.20370832750832</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>171.3100078964752</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23752,7 +23752,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>339.4232178743716</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>117.881457442061</v>
       </c>
       <c r="U18" t="n">
-        <v>117.8814574420604</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6200590018132</v>
+        <v>21.516829052014</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
-        <v>180.0685862319112</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>185.2441504954074</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.6370840092685</v>
@@ -24034,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>381.2454611894615</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>38.30750493699401</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
-        <v>147.9208493129267</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>128.7802126557267</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
-        <v>104.9215129769914</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>74.25982850666367</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>285.9311321812619</v>
@@ -24265,16 +24265,16 @@
         <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>361.0457096198747</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>38.48095440745229</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T25" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>48.43547379666953</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>51.99028735689956</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5056876845219</v>
+        <v>362.5105411053864</v>
       </c>
       <c r="H26" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>164.6200590018132</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088748</v>
+        <v>32.14655555288217</v>
       </c>
       <c r="S28" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
-        <v>228.9398311053236</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>159.529634720381</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.9311321812619</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.6370840092685</v>
@@ -24742,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>18.22418759833124</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>38.48095440745229</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S31" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9179208068699</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>112.0950484219832</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>48.76297273021305</v>
+        <v>74.25982850666412</v>
       </c>
       <c r="H32" t="n">
         <v>285.9311321812619</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>47.25198760444907</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>71.27336849625875</v>
       </c>
       <c r="H34" t="n">
         <v>139.5954175304433</v>
@@ -25128,13 +25128,13 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T34" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>76.84854013630499</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.319061736559</v>
+        <v>29.6735900422276</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.6887943319354</v>
+        <v>10.01117642274015</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>88.91519032756277</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
-        <v>138.7160322610242</v>
+        <v>138.7160322610237</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25396,22 +25396,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>325.2732891266794</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>127.8825220199101</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T39" t="n">
-        <v>28.63296146533219</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>88.91519032756237</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>86.37808034979749</v>
@@ -25599,13 +25599,13 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U40" t="n">
-        <v>75.03775785179138</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>188.5798218488412</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>274.8064578190161</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>165.0257485309374</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25760,16 +25760,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>80.46624897839583</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>22.03523190796557</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>86.37808034979749</v>
@@ -25836,25 +25836,25 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9179208068699</v>
+        <v>194.787619727613</v>
       </c>
       <c r="V43" t="n">
-        <v>112.7888910719517</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>304.9360872898796</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>160.3982043098063</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>88.915190327563</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>100.9545231063191</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>135.5005734272211</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.8263122829728</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>396887.0153257082</v>
+        <v>396887.015325708</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>396887.0153257081</v>
+        <v>396887.015325708</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>396887.0153257081</v>
+        <v>396887.015325708</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>445766.5058523909</v>
+        <v>445766.5058523907</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>445766.5058523908</v>
+        <v>445766.5058523907</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>445766.5058523907</v>
+        <v>445766.5058523908</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>445766.5058523907</v>
+        <v>445766.5058523908</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>396887.015325708</v>
+        <v>396887.0153257081</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>396887.015325708</v>
+        <v>396887.0153257081</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396887.015325708</v>
+        <v>396887.0153257081</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469807.0309616041</v>
+      </c>
+      <c r="C2" t="n">
         <v>469807.030961604</v>
-      </c>
-      <c r="C2" t="n">
-        <v>469807.0309616041</v>
       </c>
       <c r="D2" t="n">
         <v>469807.030961604</v>
       </c>
       <c r="E2" t="n">
+        <v>266923.8839720011</v>
+      </c>
+      <c r="F2" t="n">
+        <v>266923.8839720013</v>
+      </c>
+      <c r="G2" t="n">
         <v>266923.8839720012</v>
-      </c>
-      <c r="F2" t="n">
-        <v>266923.8839720012</v>
-      </c>
-      <c r="G2" t="n">
-        <v>266923.8839720013</v>
       </c>
       <c r="H2" t="n">
         <v>266923.8839720012</v>
       </c>
       <c r="I2" t="n">
-        <v>291651.4647518101</v>
+        <v>291651.4647518099</v>
       </c>
       <c r="J2" t="n">
-        <v>291651.4647518101</v>
+        <v>291651.46475181</v>
       </c>
       <c r="K2" t="n">
-        <v>291651.46475181</v>
+        <v>291651.4647518099</v>
       </c>
       <c r="L2" t="n">
-        <v>291651.4647518098</v>
+        <v>291651.4647518097</v>
       </c>
       <c r="M2" t="n">
+        <v>266923.8839720014</v>
+      </c>
+      <c r="N2" t="n">
         <v>266923.8839720013</v>
-      </c>
-      <c r="N2" t="n">
-        <v>266923.8839720012</v>
       </c>
       <c r="O2" t="n">
         <v>266923.8839720013</v>
       </c>
       <c r="P2" t="n">
-        <v>266923.8839720013</v>
+        <v>266923.8839720012</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.3559630442</v>
+        <v>560128.3559630441</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.522183634340765e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723702</v>
+        <v>16007.44950723705</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685868</v>
+        <v>96333.82383685881</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>353297.4176434987</v>
       </c>
       <c r="E4" t="n">
+        <v>19899.27969634115</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19899.27969634117</v>
+      </c>
+      <c r="G4" t="n">
         <v>19899.27969634116</v>
       </c>
-      <c r="F4" t="n">
-        <v>19899.27969634116</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19899.27969634117</v>
-      </c>
       <c r="H4" t="n">
-        <v>19899.27969634117</v>
+        <v>19899.27969634115</v>
       </c>
       <c r="I4" t="n">
         <v>33871.2863291523</v>
       </c>
       <c r="J4" t="n">
-        <v>33871.28632915231</v>
+        <v>33871.2863291523</v>
       </c>
       <c r="K4" t="n">
-        <v>33871.28632915231</v>
+        <v>33871.2863291523</v>
       </c>
       <c r="L4" t="n">
         <v>33871.2863291523</v>
       </c>
       <c r="M4" t="n">
-        <v>19899.27969634115</v>
+        <v>19899.27969634117</v>
       </c>
       <c r="N4" t="n">
-        <v>19899.27969634114</v>
+        <v>19899.27969634117</v>
       </c>
       <c r="O4" t="n">
-        <v>19899.27969634115</v>
+        <v>19899.27969634117</v>
       </c>
       <c r="P4" t="n">
         <v>19899.27969634115</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="F5" t="n">
         <v>38742.42450886575</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,13 +26502,13 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="O5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="P5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82882.01331810525</v>
+        <v>82873.21363247595</v>
       </c>
       <c r="C6" t="n">
-        <v>82882.01331810537</v>
+        <v>82873.21363247583</v>
       </c>
       <c r="D6" t="n">
-        <v>82882.01331810525</v>
+        <v>82873.21363247589</v>
       </c>
       <c r="E6" t="n">
-        <v>-351846.1761962499</v>
+        <v>-352554.5729404641</v>
       </c>
       <c r="F6" t="n">
-        <v>208282.1797667943</v>
+        <v>207573.7830225801</v>
       </c>
       <c r="G6" t="n">
-        <v>208282.1797667943</v>
+        <v>207573.7830225801</v>
       </c>
       <c r="H6" t="n">
-        <v>208282.1797667943</v>
+        <v>207573.7830225801</v>
       </c>
       <c r="I6" t="n">
-        <v>199370.3718324446</v>
+        <v>198747.2426081605</v>
       </c>
       <c r="J6" t="n">
-        <v>215377.8213396816</v>
+        <v>214754.6921153977</v>
       </c>
       <c r="K6" t="n">
-        <v>215377.8213396816</v>
+        <v>214754.6921153976</v>
       </c>
       <c r="L6" t="n">
-        <v>215377.8213396814</v>
+        <v>214754.6921153974</v>
       </c>
       <c r="M6" t="n">
-        <v>111948.3559299357</v>
+        <v>111239.9591857215</v>
       </c>
       <c r="N6" t="n">
-        <v>208282.1797667943</v>
+        <v>207573.7830225801</v>
       </c>
       <c r="O6" t="n">
-        <v>208282.1797667944</v>
+        <v>207573.7830225801</v>
       </c>
       <c r="P6" t="n">
-        <v>208282.1797667944</v>
+        <v>207573.7830225801</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.1592534165951</v>
+        <v>531.159253416595</v>
       </c>
       <c r="F3" t="n">
         <v>531.1592534165951</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="F4" t="n">
         <v>446.7623813221048</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="I4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="J4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="K4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="L4" t="n">
         <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="O4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="P4" t="n">
         <v>446.7623813221047</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.1592534165951</v>
+        <v>531.159253416595</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.078150109664906e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260522</v>
+        <v>60.19625944260531</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.566121879499</v>
+        <v>386.5661218794995</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I11" t="n">
-        <v>82.32167685364135</v>
+        <v>82.32167685364134</v>
       </c>
       <c r="J11" t="n">
-        <v>181.2320710941377</v>
+        <v>181.2320710941376</v>
       </c>
       <c r="K11" t="n">
         <v>271.6198950021757</v>
@@ -31770,31 +31770,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9423809305998</v>
+        <v>374.9423809305997</v>
       </c>
       <c r="N11" t="n">
-        <v>381.0093406442477</v>
+        <v>381.0093406442476</v>
       </c>
       <c r="O11" t="n">
-        <v>359.7763162174687</v>
+        <v>359.7763162174686</v>
       </c>
       <c r="P11" t="n">
-        <v>307.0607621723544</v>
+        <v>307.0607621723543</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.5898445322265</v>
+        <v>230.5898445322264</v>
       </c>
       <c r="R11" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S11" t="n">
-        <v>48.65845824012327</v>
+        <v>48.65845824012326</v>
       </c>
       <c r="T11" t="n">
-        <v>9.347335203341284</v>
+        <v>9.347335203341283</v>
       </c>
       <c r="U11" t="n">
-        <v>0.17082508652594</v>
+        <v>0.1708250865259399</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H12" t="n">
-        <v>11.03408184927682</v>
+        <v>11.03408184927681</v>
       </c>
       <c r="I12" t="n">
         <v>39.33585037094596</v>
@@ -31843,37 +31843,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K12" t="n">
-        <v>184.4876437079131</v>
+        <v>184.487643707913</v>
       </c>
       <c r="L12" t="n">
-        <v>248.0664041546089</v>
+        <v>248.0664041546088</v>
       </c>
       <c r="M12" t="n">
-        <v>289.4817931120443</v>
+        <v>289.4817931120442</v>
       </c>
       <c r="N12" t="n">
-        <v>297.1435147957611</v>
+        <v>297.143514795761</v>
       </c>
       <c r="O12" t="n">
-        <v>271.828264340472</v>
+        <v>271.8282643404719</v>
       </c>
       <c r="P12" t="n">
-        <v>218.166146936337</v>
+        <v>218.1661469363369</v>
       </c>
       <c r="Q12" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R12" t="n">
-        <v>70.93481501288041</v>
+        <v>70.93481501288039</v>
       </c>
       <c r="S12" t="n">
-        <v>21.22131545489886</v>
+        <v>21.22131545489885</v>
       </c>
       <c r="T12" t="n">
-        <v>4.605050508394818</v>
+        <v>4.605050508394817</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07516404529480122</v>
+        <v>0.07516404529480121</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.957828161898778</v>
+        <v>0.9578281618987777</v>
       </c>
       <c r="H13" t="n">
-        <v>8.515963112154596</v>
+        <v>8.515963112154594</v>
       </c>
       <c r="I13" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J13" t="n">
-        <v>67.7184510462436</v>
+        <v>67.71845104624359</v>
       </c>
       <c r="K13" t="n">
         <v>111.2822173551489</v>
@@ -31940,19 +31940,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.20504726590586</v>
+        <v>80.20504726590585</v>
       </c>
       <c r="R13" t="n">
-        <v>43.06743717046686</v>
+        <v>43.06743717046685</v>
       </c>
       <c r="S13" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T13" t="n">
-        <v>4.092538509931141</v>
+        <v>4.09253850993114</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05224517246720613</v>
+        <v>0.05224517246720612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K11" t="n">
-        <v>182.4835053289586</v>
+        <v>182.4835053289585</v>
       </c>
       <c r="L11" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M11" t="n">
-        <v>281.6521564735544</v>
+        <v>281.6521564735543</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0970498876284</v>
+        <v>288.0970498876283</v>
       </c>
       <c r="O11" t="n">
-        <v>266.5865405916856</v>
+        <v>266.5865405916855</v>
       </c>
       <c r="P11" t="n">
         <v>213.4113988914702</v>
@@ -35433,7 +35433,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R11" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.79474490498374</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K12" t="n">
-        <v>128.6618609232977</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L12" t="n">
-        <v>191.9518803437599</v>
+        <v>191.9518803437598</v>
       </c>
       <c r="M12" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>243.9501214020111</v>
+        <v>243.950121402011</v>
       </c>
       <c r="O12" t="n">
         <v>214.076785340472</v>
@@ -35509,7 +35509,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.3748492019304</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R12" t="n">
         <v>100.7929153791732</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328817</v>
       </c>
       <c r="K13" t="n">
-        <v>267.3956797008439</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L13" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N13" t="n">
-        <v>371.5527000370715</v>
+        <v>94.86118584832725</v>
       </c>
       <c r="O13" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P13" t="n">
-        <v>323.5979323663882</v>
+        <v>126.7886535290181</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598028</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
         <v>128.6618609232977</v>
@@ -35734,10 +35734,10 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M15" t="n">
-        <v>358.3344255429759</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N15" t="n">
-        <v>446.7623813221048</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O15" t="n">
         <v>214.076785340472</v>
@@ -35746,7 +35746,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R15" t="n">
         <v>100.7929153791732</v>
@@ -35807,19 +35807,19 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K16" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L16" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M16" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N16" t="n">
-        <v>371.5527000370715</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O16" t="n">
-        <v>79.30975884702372</v>
+        <v>197.6766809740168</v>
       </c>
       <c r="P16" t="n">
         <v>323.5979323663882</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608298</v>
       </c>
       <c r="K17" t="n">
         <v>182.4835053289586</v>
@@ -35892,7 +35892,7 @@
         <v>241.4830999614339</v>
       </c>
       <c r="M17" t="n">
-        <v>281.652156473555</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N17" t="n">
         <v>288.0970498876284</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>302.7010421641655</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K18" t="n">
-        <v>128.6618609232977</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="L18" t="n">
         <v>191.9518803437599</v>
@@ -35980,13 +35980,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P18" t="n">
-        <v>163.9065119335332</v>
+        <v>282.6882120008508</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.0398931224363</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R18" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L19" t="n">
-        <v>344.6244299793386</v>
+        <v>344.6244299793381</v>
       </c>
       <c r="M19" t="n">
         <v>442.3298337384635</v>
@@ -36199,10 +36199,10 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J21" t="n">
-        <v>302.7010421641655</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K21" t="n">
-        <v>128.6618609232977</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="L21" t="n">
         <v>191.9518803437599</v>
@@ -36214,10 +36214,10 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O21" t="n">
-        <v>297.176260445437</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P21" t="n">
-        <v>163.9065119335332</v>
+        <v>175.0351676241687</v>
       </c>
       <c r="Q21" t="n">
         <v>89.14567311248757</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K22" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L22" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M22" t="n">
-        <v>118.4962035254666</v>
+        <v>108.0072401477564</v>
       </c>
       <c r="N22" t="n">
         <v>430.2493691287167</v>
@@ -36296,7 +36296,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P22" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q22" t="n">
         <v>18.8455216059803</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404981</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289586</v>
@@ -36378,7 +36378,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.6304542127429</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R23" t="n">
         <v>175.0987005459018</v>
@@ -36436,7 +36436,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J24" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K24" t="n">
         <v>128.6618609232977</v>
@@ -36454,10 +36454,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P24" t="n">
-        <v>321.4176880343284</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>499.2165387728651</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R24" t="n">
         <v>100.7929153791732</v>
@@ -36533,7 +36533,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>238.1171678251211</v>
+        <v>238.1171678251208</v>
       </c>
       <c r="Q25" t="n">
         <v>18.8455216059803</v>
@@ -36597,7 +36597,7 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K26" t="n">
-        <v>292.5579194086272</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L26" t="n">
         <v>241.4830999614339</v>
@@ -36615,7 +36615,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.5560401330744</v>
+        <v>250.6304542127426</v>
       </c>
       <c r="R26" t="n">
         <v>175.0987005459018</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
-        <v>393.8260814007745</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L27" t="n">
         <v>191.9518803437599</v>
@@ -36694,10 +36694,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>499.2165387728651</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R27" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K28" t="n">
         <v>59.03184779608208</v>
@@ -36770,10 +36770,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>60.06512077738009</v>
+        <v>238.1171678251208</v>
       </c>
       <c r="Q28" t="n">
-        <v>131.2396255917653</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>182.4835053289586</v>
       </c>
       <c r="L29" t="n">
-        <v>351.5575140411026</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M29" t="n">
         <v>281.6521564735544</v>
@@ -36852,10 +36852,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q29" t="n">
-        <v>140.5560401330744</v>
+        <v>378.9089058048045</v>
       </c>
       <c r="R29" t="n">
-        <v>175.0987005459018</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
-        <v>393.8260814007745</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L30" t="n">
         <v>191.9518803437599</v>
@@ -36931,10 +36931,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>499.2165387728651</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R30" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K31" t="n">
         <v>59.03184779608208</v>
@@ -37007,7 +37007,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>172.459224763165</v>
+        <v>238.1171678251208</v>
       </c>
       <c r="Q31" t="n">
         <v>18.8455216059803</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404981</v>
       </c>
       <c r="K32" t="n">
-        <v>420.8363710006887</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L32" t="n">
         <v>241.4830999614339</v>
@@ -37092,7 +37092,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R32" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232977</v>
@@ -37156,22 +37156,22 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M33" t="n">
-        <v>506.95864076471</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N33" t="n">
         <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
-        <v>506.95864076471</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.5994729633227</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R33" t="n">
-        <v>100.7929153791732</v>
+        <v>30.9691354004739</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>288.0970498876284</v>
       </c>
       <c r="O35" t="n">
-        <v>266.5865405916858</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P35" t="n">
         <v>213.4113988914702</v>
@@ -37384,7 +37384,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
-        <v>57.00168487225665</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232977</v>
@@ -37393,10 +37393,10 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M36" t="n">
-        <v>446.7623813221047</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N36" t="n">
-        <v>446.7623813221047</v>
+        <v>327.0495965069759</v>
       </c>
       <c r="O36" t="n">
         <v>214.076785340472</v>
@@ -37408,7 +37408,7 @@
         <v>89.14567311248757</v>
       </c>
       <c r="R36" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K37" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L37" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N37" t="n">
-        <v>369.9485505047273</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5670915932262</v>
+        <v>324.7010323496444</v>
       </c>
       <c r="P37" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,13 +37557,13 @@
         <v>288.0970498876284</v>
       </c>
       <c r="O38" t="n">
-        <v>266.5865405916856</v>
+        <v>266.5865405916862</v>
       </c>
       <c r="P38" t="n">
         <v>213.4113988914702</v>
       </c>
       <c r="Q38" t="n">
-        <v>140.5560401330742</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R38" t="n">
         <v>46.82024895384008</v>
@@ -37621,7 +37621,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K39" t="n">
         <v>128.6618609232977</v>
@@ -37630,10 +37630,10 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M39" t="n">
-        <v>358.3344255429754</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7623813221047</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O39" t="n">
         <v>214.076785340472</v>
@@ -37642,7 +37642,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R39" t="n">
         <v>100.7929153791732</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K40" t="n">
-        <v>59.03184779608208</v>
+        <v>122.6742487658805</v>
       </c>
       <c r="L40" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M40" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N40" t="n">
-        <v>369.9485505047269</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
         <v>397.5670915932262</v>
@@ -37721,7 +37721,7 @@
         <v>60.06512077738009</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>107.9084797608294</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K41" t="n">
         <v>182.4835053289586</v>
@@ -37858,7 +37858,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
-        <v>102.9446478805584</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
         <v>128.6618609232977</v>
@@ -37876,10 +37876,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P42" t="n">
-        <v>446.7623813221047</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R42" t="n">
         <v>100.7929153791732</v>
@@ -37940,10 +37940,10 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K43" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L43" t="n">
-        <v>151.4170321640112</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M43" t="n">
         <v>442.3298337384635</v>
@@ -37952,10 +37952,10 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P43" t="n">
-        <v>60.06512077738009</v>
+        <v>233.6010225886193</v>
       </c>
       <c r="Q43" t="n">
         <v>146.3949763593511</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J45" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K45" t="n">
-        <v>230.5560809332454</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L45" t="n">
         <v>191.9518803437599</v>
@@ -38116,7 +38116,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R45" t="n">
         <v>100.7929153791732</v>
@@ -38180,7 +38180,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L46" t="n">
-        <v>278.9664869173818</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M46" t="n">
         <v>442.3298337384635</v>
@@ -38192,10 +38192,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
-        <v>60.06512077738009</v>
+        <v>123.7075217471781</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
